--- a/Analyst rating changes 2.xlsx
+++ b/Analyst rating changes 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Analyst-sentiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Analyst-sentiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370143CB-0BBF-482E-983A-F0194D8E863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{370143CB-0BBF-482E-983A-F0194D8E863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BE8B802-0D61-45D2-93C5-5EB8B95949D7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="3630" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -899,20 +899,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C20D-DE11-9641-971F-C3D4179070FE}">
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -935,76 +935,76 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="G2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44557</v>
       </c>
       <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>230</v>
+      </c>
+      <c r="G3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B4" t="s">
         <v>171</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
         <v>120</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44553</v>
-      </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>23.5</v>
-      </c>
-      <c r="G4">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44553</v>
       </c>
@@ -1012,27 +1012,27 @@
         <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="G5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44553</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1044,105 +1044,105 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>6.5</v>
+        <v>24.5</v>
       </c>
       <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44553</v>
       </c>
       <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>6.5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
         <v>270</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>44552</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>71</v>
-      </c>
-      <c r="G8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44552</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44552</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="G10">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44552</v>
       </c>
@@ -1150,96 +1150,99 @@
         <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="G11">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44552</v>
       </c>
       <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>313</v>
+      </c>
+      <c r="G12">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B13" t="s">
         <v>170</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-1</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>128</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>44551</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>746</v>
-      </c>
-      <c r="G13">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44551</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+      <c r="G14">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44551</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1248,41 +1251,38 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44551</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16">
-        <v>765</v>
-      </c>
-      <c r="G16">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44551</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1291,113 +1291,113 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <v>650</v>
+        <v>765</v>
       </c>
       <c r="G17">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44551</v>
       </c>
       <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>650</v>
+      </c>
+      <c r="G18">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B19" t="s">
         <v>107</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
         <v>135</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>44550</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>136</v>
-      </c>
-      <c r="G19">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44550</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="G20">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44550</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G21">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44550</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1406,64 +1406,64 @@
         <v>8</v>
       </c>
       <c r="F22">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="G22">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44550</v>
       </c>
       <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>210</v>
+      </c>
+      <c r="G23">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>-1</v>
       </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>44547</v>
-      </c>
-      <c r="B24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24">
-        <v>132</v>
-      </c>
-      <c r="G24">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44547</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1472,21 +1472,21 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <v>1750</v>
+        <v>132</v>
       </c>
       <c r="G25">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44547</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1495,59 +1495,59 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>164</v>
+        <v>1750</v>
       </c>
       <c r="G26">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44547</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="G27">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44547</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="G28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44547</v>
       </c>
@@ -1555,27 +1555,27 @@
         <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1584,179 +1584,179 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F30">
+        <v>125</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
         <v>28</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>44544</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31">
-        <v>250</v>
-      </c>
-      <c r="G31">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44544</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="G32">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44544</v>
       </c>
       <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>70</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33">
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>44543</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34">
-        <v>85</v>
-      </c>
-      <c r="G34">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44543</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G35">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44543</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
       </c>
       <c r="F36">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="G36">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44543</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
       </c>
       <c r="F37">
-        <v>315</v>
+        <v>146</v>
       </c>
       <c r="G37">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44543</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1765,18 +1765,18 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="G38">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44543</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -1788,130 +1788,133 @@
         <v>5</v>
       </c>
       <c r="F39">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="G39">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44543</v>
       </c>
       <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>250</v>
+      </c>
+      <c r="G40">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B41" t="s">
         <v>145</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>132</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
         <v>57</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>44540</v>
-      </c>
-      <c r="B41" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <v>-1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44540</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>43.5</v>
-      </c>
-      <c r="G42">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44540</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>73</v>
+        <v>43.5</v>
       </c>
       <c r="G43">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44540</v>
       </c>
       <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>73</v>
+      </c>
+      <c r="G44">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>132</v>
-      </c>
-      <c r="D44">
-        <v>-1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>44539</v>
-      </c>
-      <c r="B45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" t="s">
-        <v>44</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -1920,13 +1923,10 @@
         <v>5</v>
       </c>
       <c r="F45">
-        <v>130</v>
-      </c>
-      <c r="G45">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44539</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D46">
         <v>-1</v>
@@ -1943,13 +1943,13 @@
         <v>5</v>
       </c>
       <c r="F46">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G46">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44539</v>
       </c>
@@ -1957,22 +1957,22 @@
         <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>145</v>
       </c>
       <c r="G47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44539</v>
       </c>
@@ -1980,27 +1980,27 @@
         <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F48">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G48">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44539</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -2009,93 +2009,93 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="G49">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44539</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G50">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44539</v>
       </c>
       <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>135</v>
+      </c>
+      <c r="G51">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B52" t="s">
         <v>145</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>33</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
         <v>70</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>44538</v>
-      </c>
-      <c r="B52" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52">
-        <v>210</v>
-      </c>
-      <c r="G52">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44538</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2104,87 +2104,87 @@
         <v>8</v>
       </c>
       <c r="F53">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="G53">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44538</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>108</v>
+        <v>400</v>
       </c>
       <c r="G54">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44538</v>
       </c>
       <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55">
+        <v>108</v>
+      </c>
+      <c r="G55">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B56" t="s">
         <v>149</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>23</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56">
         <v>115</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>44537</v>
-      </c>
-      <c r="B56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56">
-        <v>180</v>
-      </c>
-      <c r="G56">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44537</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
         <v>21</v>
@@ -2196,148 +2196,148 @@
         <v>8</v>
       </c>
       <c r="F57">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G57">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44537</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="G58">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44537</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
       </c>
       <c r="F59">
-        <v>1097.46</v>
+        <v>220</v>
       </c>
       <c r="G59">
-        <v>1199.97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44537</v>
       </c>
       <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>1097.46</v>
+      </c>
+      <c r="G60">
+        <v>1199.97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B61" t="s">
         <v>138</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>113</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>1</v>
       </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60">
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>44536</v>
-      </c>
-      <c r="B61" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61">
-        <v>181</v>
-      </c>
-      <c r="G61">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44536</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="G62">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44536</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F63">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="G63">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44536</v>
       </c>
@@ -2345,182 +2345,182 @@
         <v>144</v>
       </c>
       <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>170</v>
+      </c>
+      <c r="G64">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
         <v>21</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64">
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>44533</v>
-      </c>
-      <c r="B65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65">
-        <v>300</v>
-      </c>
-      <c r="G65">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44533</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+      <c r="G66">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44533</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F67">
-        <v>250</v>
-      </c>
-      <c r="G67">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44533</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G68">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44533</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F69">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44533</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F70">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="G70">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44533</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
         <v>132</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F71">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="G71">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44533</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
         <v>132</v>
@@ -2529,90 +2529,90 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F72">
+        <v>210</v>
+      </c>
+      <c r="G72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
         <v>635</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>44532</v>
-      </c>
-      <c r="B73" t="s">
-        <v>135</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73">
-        <v>160</v>
-      </c>
-      <c r="G73">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44532</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F74">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G74">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44532</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F75">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="G75">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44532</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
         <v>56</v>
@@ -2624,18 +2624,18 @@
         <v>5</v>
       </c>
       <c r="F76">
-        <v>555</v>
+        <v>240</v>
       </c>
       <c r="G76">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44532</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
         <v>56</v>
@@ -2644,21 +2644,21 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F77">
-        <v>290</v>
+        <v>555</v>
       </c>
       <c r="G77">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44532</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>56</v>
@@ -2670,18 +2670,18 @@
         <v>8</v>
       </c>
       <c r="F78">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G78">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44532</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>56</v>
@@ -2699,81 +2699,81 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
       <c r="F80">
-        <v>500</v>
+        <v>265</v>
       </c>
       <c r="G80">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44531</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
       <c r="F81">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="G81">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44531</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F82">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="G82">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44531</v>
       </c>
       <c r="B83" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -2782,47 +2782,47 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>0.5</v>
+        <v>175</v>
       </c>
       <c r="G83">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44531</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F84">
-        <v>115</v>
+        <v>0.5</v>
       </c>
       <c r="G84">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44531</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2831,113 +2831,113 @@
         <v>8</v>
       </c>
       <c r="F85">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G85">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44531</v>
       </c>
       <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>86</v>
+      </c>
+      <c r="G86">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B87" t="s">
         <v>135</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>54</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
         <v>57</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>220</v>
       </c>
-      <c r="G86">
+      <c r="G87">
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B87" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87">
-        <v>66</v>
-      </c>
-      <c r="G87">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44530</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F88">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G88">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44530</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F89">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G89">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44530</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2946,84 +2946,84 @@
         <v>57</v>
       </c>
       <c r="F90">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G90">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44530</v>
       </c>
       <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91">
+        <v>81</v>
+      </c>
+      <c r="G91">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B92" t="s">
         <v>87</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>70</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92">
         <v>145</v>
       </c>
-      <c r="G91">
+      <c r="G92">
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>44529</v>
-      </c>
-      <c r="B92" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44529</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93">
-        <v>340</v>
-      </c>
-      <c r="G93">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44529</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3032,27 +3032,27 @@
         <v>8</v>
       </c>
       <c r="F94">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="G94">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44529</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
       </c>
       <c r="D95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F95">
         <v>360</v>
@@ -3061,84 +3061,84 @@
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44529</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>612</v>
+        <v>360</v>
       </c>
       <c r="G96">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44529</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s">
         <v>33</v>
       </c>
       <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>612</v>
+      </c>
+      <c r="G97">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98">
         <v>-1</v>
       </c>
-      <c r="E97" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97">
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98">
         <v>204</v>
       </c>
-      <c r="G97">
+      <c r="G98">
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B98" t="s">
-        <v>123</v>
-      </c>
-      <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98">
-        <v>130</v>
-      </c>
-      <c r="G98">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44525</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3147,87 +3147,90 @@
         <v>8</v>
       </c>
       <c r="F99">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G99">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44525</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F100">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="G100">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44525</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="G101">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44525</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="G102">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44525</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3236,41 +3239,38 @@
         <v>5</v>
       </c>
       <c r="F103">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B104" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104">
         <v>510</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B104" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104">
-        <v>965.2</v>
-      </c>
-      <c r="G104">
-        <v>822.96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44524</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3279,90 +3279,90 @@
         <v>5</v>
       </c>
       <c r="F105">
-        <v>53.34</v>
+        <v>965.2</v>
       </c>
       <c r="G105">
-        <v>55.88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+        <v>822.96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44524</v>
       </c>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F106">
-        <v>162.56</v>
+        <v>53.34</v>
       </c>
       <c r="G106">
-        <v>166.624</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55.88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44524</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F107">
-        <v>310</v>
+        <v>162.56</v>
       </c>
       <c r="G107">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+        <v>166.624</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44524</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F108">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="G108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44524</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3371,64 +3371,64 @@
         <v>5</v>
       </c>
       <c r="F109">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="G109">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44524</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F110">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="G110">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44524</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
       </c>
       <c r="F111">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="G111">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44524</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C112" t="s">
         <v>118</v>
@@ -3440,21 +3440,21 @@
         <v>8</v>
       </c>
       <c r="F112">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="G112">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44524</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -3463,92 +3463,92 @@
         <v>8</v>
       </c>
       <c r="F113">
+        <v>185</v>
+      </c>
+      <c r="G113">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B114" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114">
         <v>435</v>
       </c>
-      <c r="G113">
+      <c r="G114">
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>44523</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>116</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>117</v>
       </c>
-      <c r="D114">
+      <c r="D115">
         <v>-1</v>
       </c>
-      <c r="E114" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114">
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115">
         <f>10.5*7.08</f>
         <v>74.34</v>
       </c>
-      <c r="G114">
+      <c r="G115">
         <f>12.5*7.08</f>
         <v>88.5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B115" t="s">
-        <v>26</v>
-      </c>
-      <c r="C115" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115">
-        <v>477</v>
-      </c>
-      <c r="G115">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44523</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F116">
-        <v>128</v>
+        <v>477</v>
       </c>
       <c r="G116">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44523</v>
       </c>
       <c r="B117" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3557,196 +3557,202 @@
         <v>5</v>
       </c>
       <c r="F117">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="G117">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44523</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F118">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G118">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44523</v>
       </c>
       <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>94</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>82</v>
+      </c>
+      <c r="G119">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B120" t="s">
         <v>13</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>21</v>
       </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119">
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120">
         <v>310</v>
       </c>
-      <c r="G119">
+      <c r="G120">
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B120" t="s">
-        <v>52</v>
-      </c>
-      <c r="C120" t="s">
-        <v>113</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120">
-        <v>370</v>
-      </c>
-      <c r="G120">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44522</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C121" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
       </c>
       <c r="F121">
-        <v>1145.7</v>
+        <v>370</v>
       </c>
       <c r="G121">
-        <v>1181.8800000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44522</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F122">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1145.7</v>
+      </c>
+      <c r="G122">
+        <v>1181.8800000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44522</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C123" t="s">
         <v>30</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
       </c>
       <c r="F123">
-        <v>126</v>
-      </c>
-      <c r="G123">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44522</v>
       </c>
       <c r="B124" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>126</v>
+      </c>
+      <c r="G124">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B125" t="s">
         <v>67</v>
-      </c>
-      <c r="C124" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124">
-        <v>200</v>
-      </c>
-      <c r="G124">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B125" t="s">
-        <v>110</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
       </c>
       <c r="D125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F125">
+        <v>200</v>
+      </c>
+      <c r="G125">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44519</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D126">
         <v>-1</v>
@@ -3754,45 +3760,39 @@
       <c r="E126" t="s">
         <v>5</v>
       </c>
-      <c r="F126">
-        <v>500</v>
-      </c>
-      <c r="G126">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44519</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F127">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="G127">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44519</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3801,41 +3801,41 @@
         <v>8</v>
       </c>
       <c r="F128">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G128">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44519</v>
       </c>
       <c r="B129" t="s">
+        <v>108</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>147</v>
+      </c>
+      <c r="G129">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B130" t="s">
         <v>109</v>
-      </c>
-      <c r="C129" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129">
-        <v>199</v>
-      </c>
-      <c r="G129">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B130" t="s">
-        <v>29</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
@@ -3847,67 +3847,67 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="G130">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44518</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F131">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="G131">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44518</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F132">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G132">
-        <v>160.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44518</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -3916,73 +3916,76 @@
         <v>8</v>
       </c>
       <c r="F133">
-        <v>483</v>
+        <v>142</v>
       </c>
       <c r="G133">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44518</v>
       </c>
       <c r="B134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134">
+        <v>483</v>
+      </c>
+      <c r="G134">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B135" t="s">
         <v>25</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>30</v>
       </c>
-      <c r="D134">
+      <c r="D135">
         <v>1</v>
       </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B135" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135">
-        <v>-1</v>
-      </c>
       <c r="E135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135">
-        <v>72</v>
-      </c>
-      <c r="G135">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44517</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136">
         <v>-1</v>
       </c>
       <c r="E136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F136">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="G136">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44517</v>
       </c>
@@ -3990,62 +3993,62 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F137">
-        <v>1100</v>
-      </c>
-      <c r="G137">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44517</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F138">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1100</v>
+      </c>
+      <c r="G138">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44517</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F139">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44517</v>
       </c>
@@ -4053,50 +4056,47 @@
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F140">
-        <v>145</v>
-      </c>
-      <c r="G140">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44517</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F141">
-        <v>327</v>
+        <v>145</v>
       </c>
       <c r="G141">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44517</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
@@ -4108,64 +4108,64 @@
         <v>8</v>
       </c>
       <c r="F142">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c r="G142">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44517</v>
       </c>
       <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143">
+        <v>87</v>
+      </c>
+      <c r="G143">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B144" t="s">
         <v>20</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>21</v>
       </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143" t="s">
-        <v>8</v>
-      </c>
-      <c r="F143">
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144">
         <v>150</v>
       </c>
-      <c r="G143">
+      <c r="G144">
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <v>44516</v>
-      </c>
-      <c r="B144" t="s">
-        <v>22</v>
-      </c>
-      <c r="C144" t="s">
-        <v>23</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144">
-        <v>1145</v>
-      </c>
-      <c r="G144">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44516</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C145" t="s">
         <v>23</v>
@@ -4174,139 +4174,139 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F145">
-        <v>118</v>
+        <v>1145</v>
       </c>
       <c r="G145">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44516</v>
       </c>
       <c r="B146" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F146">
-        <v>380</v>
+        <v>118</v>
       </c>
       <c r="G146">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44516</v>
       </c>
       <c r="B147" t="s">
+        <v>51</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147">
+        <v>380</v>
+      </c>
+      <c r="G147">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B148" t="s">
         <v>49</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>21</v>
       </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147">
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148">
         <v>685</v>
       </c>
-      <c r="G147">
+      <c r="G148">
         <v>558</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
-        <v>44515</v>
-      </c>
-      <c r="B148" t="s">
-        <v>32</v>
-      </c>
-      <c r="C148" t="s">
-        <v>23</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148">
-        <v>165</v>
-      </c>
-      <c r="G148">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44515</v>
       </c>
       <c r="B149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149" t="s">
         <v>23</v>
       </c>
-      <c r="C149" t="s">
-        <v>33</v>
-      </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F149">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="G149">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44515</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F150">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G150">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44515</v>
       </c>
       <c r="B151" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -4315,41 +4315,41 @@
         <v>5</v>
       </c>
       <c r="F151">
-        <v>2.7</v>
+        <v>136</v>
       </c>
       <c r="G151">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44515</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>70</v>
+        <v>2.7</v>
       </c>
       <c r="G152">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44515</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
         <v>21</v>
@@ -4358,21 +4358,21 @@
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F153">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="G153">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44515</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
         <v>21</v>
@@ -4381,39 +4381,39 @@
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F154">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="G154">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44515</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F155">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="G155">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44515</v>
       </c>
@@ -4421,62 +4421,62 @@
         <v>40</v>
       </c>
       <c r="C156" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F156">
+        <v>103</v>
+      </c>
+      <c r="G156">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44515</v>
       </c>
       <c r="B157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>5</v>
-      </c>
-      <c r="F157">
-        <v>960</v>
-      </c>
-      <c r="G157">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44515</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F158">
-        <v>58</v>
+        <v>960</v>
       </c>
       <c r="G158">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44515</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>43</v>
       </c>
       <c r="C159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -4493,21 +4493,21 @@
         <v>8</v>
       </c>
       <c r="F159">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G159">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44515</v>
       </c>
       <c r="B160" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -4516,67 +4516,67 @@
         <v>8</v>
       </c>
       <c r="F160">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G160">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44515</v>
       </c>
       <c r="B161" t="s">
+        <v>46</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161">
+        <v>32</v>
+      </c>
+      <c r="G161">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B162" t="s">
         <v>24</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>41</v>
       </c>
-      <c r="D161">
+      <c r="D162">
         <v>1</v>
       </c>
-      <c r="E161" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161">
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162">
         <v>145</v>
       </c>
-      <c r="G161">
+      <c r="G162">
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>44512</v>
-      </c>
-      <c r="B162" t="s">
-        <v>27</v>
-      </c>
-      <c r="C162" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162">
-        <v>155</v>
-      </c>
-      <c r="G162">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44512</v>
       </c>
       <c r="B163" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -4585,18 +4585,18 @@
         <v>8</v>
       </c>
       <c r="F163">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="G163">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44512</v>
       </c>
       <c r="B164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C164" t="s">
         <v>45</v>
@@ -4614,15 +4614,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44512</v>
       </c>
       <c r="B165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -4631,18 +4631,18 @@
         <v>8</v>
       </c>
       <c r="F165">
-        <v>697</v>
+        <v>90</v>
       </c>
       <c r="G165">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44512</v>
       </c>
       <c r="B166" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C166" t="s">
         <v>44</v>
@@ -4654,18 +4654,18 @@
         <v>8</v>
       </c>
       <c r="F166">
-        <v>197</v>
+        <v>697</v>
       </c>
       <c r="G166">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44512</v>
       </c>
       <c r="B167" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C167" t="s">
         <v>44</v>
@@ -4674,16 +4674,16 @@
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F167">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="G167">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44512</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>38</v>
       </c>
       <c r="C168" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -4700,110 +4700,110 @@
         <v>5</v>
       </c>
       <c r="F168">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G168">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44512</v>
       </c>
       <c r="B169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169">
+        <v>215</v>
+      </c>
+      <c r="G169">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B170" t="s">
         <v>50</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>44</v>
       </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169" t="s">
-        <v>8</v>
-      </c>
-      <c r="F169">
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170">
         <v>31</v>
       </c>
-      <c r="G169">
+      <c r="G170">
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B170" t="s">
-        <v>52</v>
-      </c>
-      <c r="C170" t="s">
-        <v>53</v>
-      </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
-      <c r="E170" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170">
-        <v>340</v>
-      </c>
-      <c r="G170">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44511</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C171" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D171">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F171">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+      <c r="G171">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44511</v>
       </c>
       <c r="B172" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F172">
-        <v>360</v>
-      </c>
-      <c r="G172">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44511</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -4812,87 +4812,87 @@
         <v>8</v>
       </c>
       <c r="F173">
-        <v>990</v>
+        <v>360</v>
       </c>
       <c r="G173">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44511</v>
       </c>
       <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174">
+        <v>990</v>
+      </c>
+      <c r="G174">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B175" t="s">
         <v>59</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>23</v>
       </c>
-      <c r="D174">
+      <c r="D175">
         <v>-1</v>
       </c>
-      <c r="E174" t="s">
-        <v>5</v>
-      </c>
-      <c r="F174">
+      <c r="E175" t="s">
+        <v>5</v>
+      </c>
+      <c r="F175">
         <v>75</v>
       </c>
-      <c r="G174">
+      <c r="G175">
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B175" t="s">
-        <v>60</v>
-      </c>
-      <c r="C175" t="s">
-        <v>31</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175" t="s">
-        <v>5</v>
-      </c>
-      <c r="F175">
-        <v>51</v>
-      </c>
-      <c r="G175">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44510</v>
       </c>
       <c r="B176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C176" t="s">
+        <v>31</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>5</v>
+      </c>
+      <c r="F176">
+        <v>51</v>
+      </c>
+      <c r="G176">
         <v>45</v>
       </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176" t="s">
-        <v>5</v>
-      </c>
-      <c r="F176">
-        <v>325</v>
-      </c>
-      <c r="G176">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44510</v>
       </c>
       <c r="B177" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C177" t="s">
         <v>45</v>
@@ -4901,24 +4901,24 @@
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F177">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="G177">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44510</v>
       </c>
       <c r="B178" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C178" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -4927,21 +4927,21 @@
         <v>8</v>
       </c>
       <c r="F178">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="G178">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44510</v>
       </c>
       <c r="B179" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C179" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4950,67 +4950,67 @@
         <v>8</v>
       </c>
       <c r="F179">
-        <v>497</v>
+        <v>32</v>
       </c>
       <c r="G179">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44510</v>
       </c>
       <c r="B180" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F180">
-        <v>360</v>
+        <v>497</v>
       </c>
       <c r="G180">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44510</v>
       </c>
       <c r="B181" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F181">
-        <v>92.5</v>
+        <v>360</v>
       </c>
       <c r="G181">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44510</v>
       </c>
       <c r="B182" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C182" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -5019,64 +5019,64 @@
         <v>8</v>
       </c>
       <c r="F182">
-        <v>100</v>
+        <v>92.5</v>
       </c>
       <c r="G182">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44510</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F183">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="G183">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44510</v>
       </c>
       <c r="B184" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F184">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="G184">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44510</v>
       </c>
       <c r="B185" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C185" t="s">
         <v>44</v>
@@ -5088,41 +5088,44 @@
         <v>8</v>
       </c>
       <c r="F185">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G185">
         <v>140</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B186" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C186" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
       </c>
       <c r="F186">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+      <c r="G186">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44509</v>
       </c>
       <c r="B187" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -5131,148 +5134,145 @@
         <v>8</v>
       </c>
       <c r="F187">
-        <v>211</v>
-      </c>
-      <c r="G187">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44509</v>
       </c>
       <c r="B188" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F188">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="G188">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44509</v>
       </c>
       <c r="B189" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F189">
-        <v>575</v>
+        <v>248</v>
       </c>
       <c r="G189">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44509</v>
       </c>
       <c r="B190" t="s">
+        <v>73</v>
+      </c>
+      <c r="C190" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190">
+        <v>575</v>
+      </c>
+      <c r="G190">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B191" t="s">
         <v>74</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C191" t="s">
         <v>31</v>
       </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190" t="s">
-        <v>8</v>
-      </c>
-      <c r="F190">
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191">
         <v>328</v>
       </c>
-      <c r="G190">
+      <c r="G191">
         <v>310</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B191" t="s">
-        <v>48</v>
-      </c>
-      <c r="C191" t="s">
-        <v>70</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-      <c r="E191" t="s">
-        <v>5</v>
-      </c>
-      <c r="F191">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44505</v>
       </c>
       <c r="B192" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F192">
-        <v>180</v>
-      </c>
-      <c r="G192">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44505</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F193">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="G193">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44505</v>
       </c>
@@ -5280,22 +5280,22 @@
         <v>60</v>
       </c>
       <c r="C194" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F194">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G194">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44505</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>60</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -5312,13 +5312,13 @@
         <v>8</v>
       </c>
       <c r="F195">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G195">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44505</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>60</v>
       </c>
       <c r="C196" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -5335,13 +5335,13 @@
         <v>8</v>
       </c>
       <c r="F196">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G196">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44505</v>
       </c>
@@ -5349,30 +5349,30 @@
         <v>60</v>
       </c>
       <c r="C197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F197">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G197">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44505</v>
       </c>
       <c r="B198" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -5381,21 +5381,21 @@
         <v>5</v>
       </c>
       <c r="F198">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="G198">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44505</v>
       </c>
       <c r="B199" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C199" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -5404,13 +5404,13 @@
         <v>5</v>
       </c>
       <c r="F199">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="G199">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44505</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>28</v>
       </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -5427,107 +5427,107 @@
         <v>5</v>
       </c>
       <c r="F200">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G200">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44505</v>
       </c>
       <c r="B201" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201">
+        <v>120</v>
+      </c>
+      <c r="G201">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B202" t="s">
         <v>71</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
         <v>45</v>
       </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201" t="s">
-        <v>8</v>
-      </c>
-      <c r="F201">
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202">
         <v>275</v>
       </c>
-      <c r="G201">
+      <c r="G202">
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" s="1">
-        <v>44504</v>
-      </c>
-      <c r="B202" t="s">
-        <v>81</v>
-      </c>
-      <c r="C202" t="s">
-        <v>78</v>
-      </c>
-      <c r="D202">
-        <v>-1</v>
-      </c>
-      <c r="E202" t="s">
-        <v>57</v>
-      </c>
-      <c r="F202">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44504</v>
       </c>
       <c r="B203" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E203" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F203">
-        <v>115</v>
-      </c>
-      <c r="G203">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44504</v>
       </c>
       <c r="B204" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C204" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F204">
-        <v>350</v>
+        <v>115</v>
       </c>
       <c r="G204">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44504</v>
       </c>
       <c r="B205" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C205" t="s">
         <v>23</v>
@@ -5536,67 +5536,67 @@
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F205">
+        <v>350</v>
+      </c>
+      <c r="G205">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B206" t="s">
+        <v>82</v>
+      </c>
+      <c r="C206" t="s">
+        <v>23</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>5</v>
+      </c>
+      <c r="F206">
         <v>281</v>
       </c>
-      <c r="G205">
+      <c r="G206">
         <v>270</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B206" t="s">
-        <v>83</v>
-      </c>
-      <c r="C206" t="s">
-        <v>70</v>
-      </c>
-      <c r="D206">
-        <v>1</v>
-      </c>
-      <c r="E206" t="s">
-        <v>5</v>
-      </c>
-      <c r="F206">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44503</v>
       </c>
       <c r="B207" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F207">
-        <v>95</v>
-      </c>
-      <c r="G207">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44503</v>
       </c>
       <c r="B208" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C208" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -5605,21 +5605,21 @@
         <v>8</v>
       </c>
       <c r="F208">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="G208">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44503</v>
       </c>
       <c r="B209" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -5628,18 +5628,18 @@
         <v>8</v>
       </c>
       <c r="F209">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="G209">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44503</v>
       </c>
       <c r="B210" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C210" t="s">
         <v>31</v>
@@ -5648,44 +5648,44 @@
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F210">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="G210">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44503</v>
       </c>
       <c r="B211" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C211" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F211">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G211">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44503</v>
       </c>
       <c r="B212" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C212" t="s">
         <v>54</v>
@@ -5694,21 +5694,21 @@
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F212">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G212">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44503</v>
       </c>
       <c r="B213" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C213" t="s">
         <v>54</v>
@@ -5717,90 +5717,90 @@
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F213">
-        <v>540</v>
+        <v>123</v>
       </c>
       <c r="G213">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44503</v>
       </c>
       <c r="B214" t="s">
+        <v>91</v>
+      </c>
+      <c r="C214" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>5</v>
+      </c>
+      <c r="F214">
+        <v>540</v>
+      </c>
+      <c r="G214">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B215" t="s">
         <v>27</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>21</v>
       </c>
-      <c r="D214">
-        <v>0</v>
-      </c>
-      <c r="E214" t="s">
-        <v>8</v>
-      </c>
-      <c r="F214">
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215">
         <v>140</v>
       </c>
-      <c r="G214">
+      <c r="G215">
         <v>163</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A215" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B215" t="s">
-        <v>92</v>
-      </c>
-      <c r="C215" t="s">
-        <v>33</v>
-      </c>
-      <c r="D215">
-        <v>-1</v>
-      </c>
-      <c r="E215" t="s">
-        <v>34</v>
-      </c>
-      <c r="F215">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44502</v>
       </c>
       <c r="B216" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F216">
-        <v>75</v>
-      </c>
-      <c r="G216">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44502</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C217" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -5809,21 +5809,21 @@
         <v>8</v>
       </c>
       <c r="F217">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G217">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44502</v>
       </c>
       <c r="B218" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -5832,18 +5832,18 @@
         <v>8</v>
       </c>
       <c r="F218">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G218">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44502</v>
       </c>
       <c r="B219" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C219" t="s">
         <v>44</v>
@@ -5855,99 +5855,102 @@
         <v>8</v>
       </c>
       <c r="F219">
-        <v>550</v>
+        <v>54</v>
       </c>
       <c r="G219">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44502</v>
       </c>
       <c r="B220" t="s">
+        <v>96</v>
+      </c>
+      <c r="C220" t="s">
+        <v>44</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220">
+        <v>550</v>
+      </c>
+      <c r="G220">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B221" t="s">
         <v>42</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>12</v>
       </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220" t="s">
-        <v>8</v>
-      </c>
-      <c r="F220">
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221">
         <v>810</v>
       </c>
-      <c r="G220">
+      <c r="G221">
         <v>760</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A221" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B221" t="s">
-        <v>55</v>
-      </c>
-      <c r="C221" t="s">
-        <v>97</v>
-      </c>
-      <c r="D221">
-        <v>-1</v>
-      </c>
-      <c r="E221" t="s">
-        <v>5</v>
-      </c>
-      <c r="F221">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44501</v>
       </c>
       <c r="B222" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="C222" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F222">
-        <v>208</v>
-      </c>
-      <c r="G222">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44501</v>
       </c>
       <c r="B223" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C223" t="s">
         <v>23</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
       </c>
       <c r="F223">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="G223">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44501</v>
       </c>
@@ -5955,96 +5958,93 @@
         <v>99</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D224">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E224" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F224">
-        <v>105</v>
-      </c>
-      <c r="G224">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44501</v>
       </c>
       <c r="B225" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C225" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E225" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F225">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="G225">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44501</v>
       </c>
       <c r="B226" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C226" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F226">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="G226">
         <v>192</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44501</v>
       </c>
       <c r="B227" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C227" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F227">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="G227">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44501</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C228" t="s">
         <v>54</v>
@@ -6056,41 +6056,41 @@
         <v>90</v>
       </c>
       <c r="F228">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="G228">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44501</v>
       </c>
       <c r="B229" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F229">
+        <v>88</v>
+      </c>
+      <c r="G229">
         <v>85</v>
       </c>
-      <c r="G229">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44501</v>
       </c>
       <c r="B230" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C230" t="s">
         <v>23</v>
@@ -6099,35 +6099,58 @@
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F230">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="G230">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44501</v>
       </c>
       <c r="B231" t="s">
+        <v>103</v>
+      </c>
+      <c r="C231" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231">
+        <v>210</v>
+      </c>
+      <c r="G231">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B232" t="s">
         <v>104</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C232" t="s">
         <v>105</v>
       </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-      <c r="E231" t="s">
-        <v>5</v>
-      </c>
-      <c r="F231">
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>5</v>
+      </c>
+      <c r="F232">
         <v>204</v>
       </c>
-      <c r="G231">
+      <c r="G232">
         <v>210</v>
       </c>
     </row>
